--- a/biology/Zoologie/Eutemnospondyli/Eutemnospondyli.xlsx
+++ b/biology/Zoologie/Eutemnospondyli/Eutemnospondyli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eutemnospondyles
 Les Eutemnospondyli (eutemnospondyles en français) sont un clade d'amphibiens qui inclut tous les temnospondyles à l'exception des édopoïdes. Le taxon a été proposé par paléontologue allemand Rainer R. Schoch (d) en 2013 qui l'a défini comme « comprenant tous les temnospondyles plus étroitement liés aux Stereospondyli qu'aux Edopoidea ». Dans son analyse phylogénétique, Eutemnospondyli a inclus des dendrerpetontidés (en) et un clade qu'il désigne sous le nom de Rhachitomi.
@@ -512,9 +524,11 @@
           <t>Phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ci-dessous, un cladogramme d'après l'analyse de Schoch en 2013 montrant le placement des Eutemnospondyli dans les Temnospondyli[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, un cladogramme d'après l'analyse de Schoch en 2013 montrant le placement des Eutemnospondyli dans les Temnospondyli :
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Rainer R. Schoch, « The evolution of major temnospondyl clades: an inclusive phylogenetic analysis », Journal of Systematic Palaeontology, Taylor &amp; Francis, vol. 11, no 6,‎ août 2013, p. 673-705 (ISSN 1477-2019 et 1478-0941, DOI 10.1080/14772019.2012.699006)</t>
         </is>
